--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D018DF-2088-4E0B-A279-34F2D099A753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F0E31-F9FD-43B0-9C17-BE2F69E579CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
   <si>
     <t>设备表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,23 +620,35 @@
   <si>
     <t>资源表外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织用户关系表</t>
+  </si>
+  <si>
+    <t>t_organization_user</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -960,21 +972,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D104" sqref="A100:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>100</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>115</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>118</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>121</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>123</v>
       </c>
@@ -2072,7 +2084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>137</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>15</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>117</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>139</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>142</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>15</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>144</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>145</v>
       </c>
@@ -2282,6 +2294,80 @@
       </c>
       <c r="D104" s="1" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
